--- a/6_Advanced_Data_Analysis/1_Analysis_Add-ins.xlsx
+++ b/6_Advanced_Data_Analysis/1_Analysis_Add-ins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\6_Advanced_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF2F958-D5B8-45E2-9DE0-007D4C1ED640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B91C1-64E7-4FEA-8B70-C5A998C77FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10416" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast_Original" sheetId="7" r:id="rId1"/>
@@ -15440,7 +15440,7 @@
         <v>56.302764591658672</v>
       </c>
       <c r="D431" s="17">
-        <f t="shared" ref="D431:D462" si="7">C431-_xlfn.FORECAST.ETS.CONFINT(A431,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="D431:D458" si="7">C431-_xlfn.FORECAST.ETS.CONFINT(A431,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>-75.602344910257472</v>
       </c>
       <c r="E431" s="17">

--- a/6_Advanced_Data_Analysis/1_Analysis_Add-ins.xlsx
+++ b/6_Advanced_Data_Analysis/1_Analysis_Add-ins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\6_Advanced_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B91C1-64E7-4FEA-8B70-C5A998C77FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C309F530-9477-46F8-BC41-B3020D3E60A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10428" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast_Original" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="base" localSheetId="2">'What-If_Analysis'!$C$3</definedName>
     <definedName name="bonus" localSheetId="2">'What-If_Analysis'!$C$4</definedName>
     <definedName name="raise" localSheetId="2">'What-If_Analysis'!$C$5</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'What-If_Analysis'!$C$4:$C$5</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
@@ -38,9 +37,8 @@
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'What-If_Analysis'!$C$14</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
@@ -55,8 +53,8 @@
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">640000</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="TotalSalary">'What-If_Analysis'!$C$14</definedName>
     <definedName name="Year0">'What-If_Analysis'!$C$9</definedName>
@@ -65,7 +63,7 @@
     <definedName name="Year3">'What-If_Analysis'!$C$12</definedName>
     <definedName name="Year4">'What-If_Analysis'!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15921,7 +15919,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16096,23 +16094,6 @@
       </c>
     </row>
   </sheetData>
-  <scenarios current="0" show="0" sqref="C9:C14">
-    <scenario name="Job 1" count="3" user="lukebarousse" comment="Created by lukebarousse on 8/8/2024">
-      <inputCells r="C3" val="100000" numFmtId="164"/>
-      <inputCells r="C4" val="0.1" numFmtId="9"/>
-      <inputCells r="C5" val="0.015" numFmtId="165"/>
-    </scenario>
-    <scenario name="Job 2" locked="1" count="3" user="lukebarousse" comment="Created by lukebarousse on 8/8/2024_x000a_Modified by lukebarousse on 8/8/2024">
-      <inputCells r="C3" val="80000" numFmtId="164"/>
-      <inputCells r="C4" val="0.15" numFmtId="9"/>
-      <inputCells r="C5" val="0.012" numFmtId="165"/>
-    </scenario>
-    <scenario name="Job 3" locked="1" count="3" user="lukebarousse" comment="Created by lukebarousse on 8/8/2024">
-      <inputCells r="C3" val="120000" numFmtId="164"/>
-      <inputCells r="C4" val="0.05" numFmtId="9"/>
-      <inputCells r="C5" val="0.008" numFmtId="165"/>
-    </scenario>
-  </scenarios>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
